--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/87/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/87/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24424</v>
+        <v>2.23422</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.24</v>
+        <v>2234.22</v>
       </c>
     </row>
     <row r="5">
@@ -488,21 +488,21 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>3.04502</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>3045.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.12401</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>3.90254</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>3902.54</v>
       </c>
     </row>
     <row r="7">
@@ -510,1055 +510,1055 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63316</v>
+        <v>4.58212</v>
       </c>
       <c r="C7" t="n">
-        <v>5633.16</v>
+        <v>4582.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.186017</v>
       </c>
       <c r="B8" t="n">
-        <v>6.60836</v>
+        <v>5.22046</v>
       </c>
       <c r="C8" t="n">
-        <v>6608.36</v>
+        <v>5220.46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216993</v>
       </c>
       <c r="B9" t="n">
-        <v>7.332770000000001</v>
+        <v>5.83704</v>
       </c>
       <c r="C9" t="n">
-        <v>7332.77</v>
+        <v>5837.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247932</v>
+        <v>0.247931</v>
       </c>
       <c r="B10" t="n">
-        <v>8.15081</v>
+        <v>6.39216</v>
       </c>
       <c r="C10" t="n">
-        <v>8150.81</v>
+        <v>6392.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278857</v>
+        <v>0.278856</v>
       </c>
       <c r="B11" t="n">
-        <v>8.923360000000001</v>
+        <v>6.90352</v>
       </c>
       <c r="C11" t="n">
-        <v>8923.360000000001</v>
+        <v>6903.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309804</v>
+        <v>0.309781</v>
       </c>
       <c r="B12" t="n">
-        <v>9.589290000000002</v>
+        <v>7.4005</v>
       </c>
       <c r="C12" t="n">
-        <v>9589.290000000001</v>
+        <v>7400.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340729</v>
+        <v>0.340706</v>
       </c>
       <c r="B13" t="n">
-        <v>10.0858</v>
+        <v>7.8003</v>
       </c>
       <c r="C13" t="n">
-        <v>10085.8</v>
+        <v>7800.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371655</v>
+        <v>0.371632</v>
       </c>
       <c r="B14" t="n">
-        <v>10.5457</v>
+        <v>8.148350000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>10545.7</v>
+        <v>8148.35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.40258</v>
+        <v>0.402552</v>
       </c>
       <c r="B15" t="n">
-        <v>10.8165</v>
+        <v>8.369450000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>10816.5</v>
+        <v>8369.450000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433505</v>
+        <v>0.433477</v>
       </c>
       <c r="B16" t="n">
-        <v>10.8427</v>
+        <v>8.50107</v>
       </c>
       <c r="C16" t="n">
-        <v>10842.7</v>
+        <v>8501.07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.46443</v>
+        <v>0.464402</v>
       </c>
       <c r="B17" t="n">
-        <v>10.8142</v>
+        <v>8.5139</v>
       </c>
       <c r="C17" t="n">
-        <v>10814.2</v>
+        <v>8513.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495355</v>
+        <v>0.495327</v>
       </c>
       <c r="B18" t="n">
-        <v>10.7817</v>
+        <v>8.48448</v>
       </c>
       <c r="C18" t="n">
-        <v>10781.7</v>
+        <v>8484.48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.52628</v>
+        <v>0.5262520000000001</v>
       </c>
       <c r="B19" t="n">
-        <v>10.7465</v>
+        <v>8.44858</v>
       </c>
       <c r="C19" t="n">
-        <v>10746.5</v>
+        <v>8448.58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557205</v>
+        <v>0.557177</v>
       </c>
       <c r="B20" t="n">
-        <v>10.7085</v>
+        <v>8.40902</v>
       </c>
       <c r="C20" t="n">
-        <v>10708.5</v>
+        <v>8409.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.58813</v>
+        <v>0.588102</v>
       </c>
       <c r="B21" t="n">
-        <v>10.6697</v>
+        <v>8.36786</v>
       </c>
       <c r="C21" t="n">
-        <v>10669.7</v>
+        <v>8367.860000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619167</v>
+        <v>0.619144</v>
       </c>
       <c r="B22" t="n">
-        <v>10.629</v>
+        <v>8.32471</v>
       </c>
       <c r="C22" t="n">
-        <v>10629</v>
+        <v>8324.709999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650344</v>
+        <v>0.650317</v>
       </c>
       <c r="B23" t="n">
-        <v>10.5862</v>
+        <v>8.27463</v>
       </c>
       <c r="C23" t="n">
-        <v>10586.2</v>
+        <v>8274.629999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681517</v>
+        <v>0.681494</v>
       </c>
       <c r="B24" t="n">
-        <v>10.5428</v>
+        <v>8.221450000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>10542.8</v>
+        <v>8221.450000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712694</v>
+        <v>0.712666</v>
       </c>
       <c r="B25" t="n">
-        <v>10.4991</v>
+        <v>8.16351</v>
       </c>
       <c r="C25" t="n">
-        <v>10499.1</v>
+        <v>8163.51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438669999999999</v>
+        <v>0.7438439999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>10.4536</v>
+        <v>8.10244</v>
       </c>
       <c r="C26" t="n">
-        <v>10453.6</v>
+        <v>8102.44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775039</v>
+        <v>0.775016</v>
       </c>
       <c r="B27" t="n">
-        <v>10.4071</v>
+        <v>8.03571</v>
       </c>
       <c r="C27" t="n">
-        <v>10407.1</v>
+        <v>8035.71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806216</v>
+        <v>0.806189</v>
       </c>
       <c r="B28" t="n">
-        <v>10.3595</v>
+        <v>7.96921</v>
       </c>
       <c r="C28" t="n">
-        <v>10359.5</v>
+        <v>7969.21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837389</v>
+        <v>0.8373660000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>10.3093</v>
+        <v>7.894270000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>10309.3</v>
+        <v>7894.27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868561</v>
+        <v>0.868538</v>
       </c>
       <c r="B30" t="n">
-        <v>10.2563</v>
+        <v>7.8207</v>
       </c>
       <c r="C30" t="n">
-        <v>10256.3</v>
+        <v>7820.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899738</v>
+        <v>0.899711</v>
       </c>
       <c r="B31" t="n">
-        <v>10.2009</v>
+        <v>7.73916</v>
       </c>
       <c r="C31" t="n">
-        <v>10200.9</v>
+        <v>7739.16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930911</v>
+        <v>0.930888</v>
       </c>
       <c r="B32" t="n">
-        <v>10.1434</v>
+        <v>7.65774</v>
       </c>
       <c r="C32" t="n">
-        <v>10143.4</v>
+        <v>7657.74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620880000000001</v>
+        <v>0.96206</v>
       </c>
       <c r="B33" t="n">
-        <v>10.0819</v>
+        <v>7.570460000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>10081.9</v>
+        <v>7570.46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.99326</v>
+        <v>0.993233</v>
       </c>
       <c r="B34" t="n">
-        <v>10.0171</v>
+        <v>7.48014</v>
       </c>
       <c r="C34" t="n">
-        <v>10017.1</v>
+        <v>7480.14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02457</v>
+        <v>1.02456</v>
       </c>
       <c r="B35" t="n">
-        <v>9.94908</v>
+        <v>7.388</v>
       </c>
       <c r="C35" t="n">
-        <v>9949.08</v>
+        <v>7388</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05594</v>
       </c>
       <c r="B36" t="n">
-        <v>9.87852</v>
+        <v>7.28941</v>
       </c>
       <c r="C36" t="n">
-        <v>9878.52</v>
+        <v>7289.41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08734</v>
+        <v>1.08732</v>
       </c>
       <c r="B37" t="n">
-        <v>9.80362</v>
+        <v>7.191850000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>9803.620000000001</v>
+        <v>7191.85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11872</v>
+        <v>1.1187</v>
       </c>
       <c r="B38" t="n">
-        <v>9.72578</v>
+        <v>7.086189999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>9725.780000000001</v>
+        <v>7086.19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1501</v>
+        <v>1.14984</v>
       </c>
       <c r="B39" t="n">
-        <v>9.644080000000001</v>
+        <v>7.28216</v>
       </c>
       <c r="C39" t="n">
-        <v>9644.08</v>
+        <v>7282.16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18118</v>
+        <v>1.18081</v>
       </c>
       <c r="B40" t="n">
-        <v>8.44609</v>
+        <v>6.210020000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>8446.09</v>
+        <v>6210.02</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.2119</v>
+        <v>1.21191</v>
       </c>
       <c r="B41" t="n">
-        <v>9.660959999999999</v>
+        <v>6.72405</v>
       </c>
       <c r="C41" t="n">
-        <v>9660.959999999999</v>
+        <v>6724.05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24262</v>
+        <v>1.24322</v>
       </c>
       <c r="B42" t="n">
-        <v>9.45008</v>
+        <v>6.59388</v>
       </c>
       <c r="C42" t="n">
-        <v>9450.08</v>
+        <v>6593.88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27367</v>
+        <v>1.27403</v>
       </c>
       <c r="B43" t="n">
-        <v>9.659610000000001</v>
+        <v>6.6108</v>
       </c>
       <c r="C43" t="n">
-        <v>9659.610000000001</v>
+        <v>6610.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30482</v>
+        <v>1.30525</v>
       </c>
       <c r="B44" t="n">
-        <v>9.47533</v>
+        <v>6.3727</v>
       </c>
       <c r="C44" t="n">
-        <v>9475.33</v>
+        <v>6372.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33576</v>
+        <v>1.33623</v>
       </c>
       <c r="B45" t="n">
-        <v>9.437299999999999</v>
+        <v>6.272930000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>9437.299999999999</v>
+        <v>6272.93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36616</v>
+        <v>1.36684</v>
       </c>
       <c r="B46" t="n">
-        <v>9.23607</v>
+        <v>6.085649999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>9236.07</v>
+        <v>6085.65</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39761</v>
+        <v>1.39745</v>
       </c>
       <c r="B47" t="n">
-        <v>9.14048</v>
+        <v>6.03041</v>
       </c>
       <c r="C47" t="n">
-        <v>9140.48</v>
+        <v>6030.41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42907</v>
+        <v>1.42806</v>
       </c>
       <c r="B48" t="n">
-        <v>9.090770000000001</v>
+        <v>5.94229</v>
       </c>
       <c r="C48" t="n">
-        <v>9090.77</v>
+        <v>5942.29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45968</v>
+        <v>1.45867</v>
       </c>
       <c r="B49" t="n">
-        <v>8.94435</v>
+        <v>5.811</v>
       </c>
       <c r="C49" t="n">
-        <v>8944.35</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49029</v>
+        <v>1.48928</v>
       </c>
       <c r="B50" t="n">
-        <v>8.80184</v>
+        <v>5.654770000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>8801.84</v>
+        <v>5654.77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.5209</v>
+        <v>1.51989</v>
       </c>
       <c r="B51" t="n">
-        <v>8.62542</v>
+        <v>5.57364</v>
       </c>
       <c r="C51" t="n">
-        <v>8625.42</v>
+        <v>5573.64</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55151</v>
+        <v>1.5505</v>
       </c>
       <c r="B52" t="n">
-        <v>8.546100000000001</v>
+        <v>5.507020000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>8546.1</v>
+        <v>5507.02</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58212</v>
+        <v>1.58112</v>
       </c>
       <c r="B53" t="n">
-        <v>8.388440000000001</v>
+        <v>5.41317</v>
       </c>
       <c r="C53" t="n">
-        <v>8388.440000000001</v>
+        <v>5413.17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61272</v>
+        <v>1.61232</v>
       </c>
       <c r="B54" t="n">
-        <v>8.291510000000001</v>
+        <v>5.3253</v>
       </c>
       <c r="C54" t="n">
-        <v>8291.51</v>
+        <v>5325.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64333</v>
+        <v>1.64401</v>
       </c>
       <c r="B55" t="n">
-        <v>8.1959</v>
+        <v>5.179930000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>8195.9</v>
+        <v>5179.93</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67394</v>
+        <v>1.67509</v>
       </c>
       <c r="B56" t="n">
-        <v>8.095090000000001</v>
+        <v>5.10803</v>
       </c>
       <c r="C56" t="n">
-        <v>8095.09</v>
+        <v>5108.03</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70455</v>
+        <v>1.70631</v>
       </c>
       <c r="B57" t="n">
-        <v>7.98307</v>
+        <v>5.01634</v>
       </c>
       <c r="C57" t="n">
-        <v>7983.07</v>
+        <v>5016.34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73516</v>
+        <v>1.73757</v>
       </c>
       <c r="B58" t="n">
-        <v>7.8562</v>
+        <v>4.90728</v>
       </c>
       <c r="C58" t="n">
-        <v>7856.2</v>
+        <v>4907.28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76577</v>
+        <v>1.76832</v>
       </c>
       <c r="B59" t="n">
-        <v>7.718310000000001</v>
+        <v>4.83925</v>
       </c>
       <c r="C59" t="n">
-        <v>7718.31</v>
+        <v>4839.25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79699</v>
+        <v>1.7993</v>
       </c>
       <c r="B60" t="n">
-        <v>7.567060000000001</v>
+        <v>4.794210000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>7567.06</v>
+        <v>4794.21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82775</v>
+        <v>1.83029</v>
       </c>
       <c r="B61" t="n">
-        <v>7.443960000000001</v>
+        <v>4.696050000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>7443.96</v>
+        <v>4696.05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.85892</v>
+        <v>1.86203</v>
       </c>
       <c r="B62" t="n">
-        <v>7.301600000000001</v>
+        <v>4.61422</v>
       </c>
       <c r="C62" t="n">
-        <v>7301.6</v>
+        <v>4614.22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.88974</v>
+        <v>1.89398</v>
       </c>
       <c r="B63" t="n">
-        <v>7.1852</v>
+        <v>4.48789</v>
       </c>
       <c r="C63" t="n">
-        <v>7185.2</v>
+        <v>4487.89</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92053</v>
+        <v>1.92526</v>
       </c>
       <c r="B64" t="n">
-        <v>7.02982</v>
+        <v>4.41845</v>
       </c>
       <c r="C64" t="n">
-        <v>7029.82</v>
+        <v>4418.45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95219</v>
+        <v>1.95653</v>
       </c>
       <c r="B65" t="n">
-        <v>6.94502</v>
+        <v>4.32995</v>
       </c>
       <c r="C65" t="n">
-        <v>6945.02</v>
+        <v>4329.95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98385</v>
+        <v>1.98781</v>
       </c>
       <c r="B66" t="n">
-        <v>6.82744</v>
+        <v>4.27686</v>
       </c>
       <c r="C66" t="n">
-        <v>6827.44</v>
+        <v>4276.86</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01498</v>
+        <v>2.01903</v>
       </c>
       <c r="B67" t="n">
-        <v>6.72466</v>
+        <v>4.22505</v>
       </c>
       <c r="C67" t="n">
-        <v>6724.66</v>
+        <v>4225.05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04571</v>
+        <v>2.04938</v>
       </c>
       <c r="B68" t="n">
-        <v>6.59609</v>
+        <v>4.20058</v>
       </c>
       <c r="C68" t="n">
-        <v>6596.09</v>
+        <v>4200.58</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.077</v>
+        <v>2.08077</v>
       </c>
       <c r="B69" t="n">
-        <v>6.50691</v>
+        <v>4.12329</v>
       </c>
       <c r="C69" t="n">
-        <v>6506.91</v>
+        <v>4123.29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.108</v>
+        <v>2.11114</v>
       </c>
       <c r="B70" t="n">
-        <v>6.388140000000001</v>
+        <v>4.10046</v>
       </c>
       <c r="C70" t="n">
-        <v>6388.14</v>
+        <v>4100.46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13874</v>
+        <v>2.14132</v>
       </c>
       <c r="B71" t="n">
-        <v>6.28781</v>
+        <v>4.08241</v>
       </c>
       <c r="C71" t="n">
-        <v>6287.81</v>
+        <v>4082.41</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17036</v>
+        <v>2.17179</v>
       </c>
       <c r="B72" t="n">
-        <v>6.200670000000001</v>
+        <v>4.02812</v>
       </c>
       <c r="C72" t="n">
-        <v>6200.67</v>
+        <v>4028.12</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20055</v>
+        <v>2.20303</v>
       </c>
       <c r="B73" t="n">
-        <v>6.10001</v>
+        <v>3.9921</v>
       </c>
       <c r="C73" t="n">
-        <v>6100.01</v>
+        <v>3992.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23199</v>
+        <v>2.23542</v>
       </c>
       <c r="B74" t="n">
-        <v>6.01765</v>
+        <v>3.92878</v>
       </c>
       <c r="C74" t="n">
-        <v>6017.65</v>
+        <v>3928.78</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26314</v>
+        <v>2.26782</v>
       </c>
       <c r="B75" t="n">
-        <v>5.93091</v>
+        <v>3.86754</v>
       </c>
       <c r="C75" t="n">
-        <v>5930.91</v>
+        <v>3867.54</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29354</v>
+        <v>2.30018</v>
       </c>
       <c r="B76" t="n">
-        <v>5.8578</v>
+        <v>3.81106</v>
       </c>
       <c r="C76" t="n">
-        <v>5857.8</v>
+        <v>3811.06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32517</v>
+        <v>2.33158</v>
       </c>
       <c r="B77" t="n">
-        <v>5.7785</v>
+        <v>3.76829</v>
       </c>
       <c r="C77" t="n">
-        <v>5778.5</v>
+        <v>3768.29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35607</v>
+        <v>2.36231</v>
       </c>
       <c r="B78" t="n">
-        <v>5.71207</v>
+        <v>3.73341</v>
       </c>
       <c r="C78" t="n">
-        <v>5712.07</v>
+        <v>3733.41</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38679</v>
+        <v>2.39303</v>
       </c>
       <c r="B79" t="n">
-        <v>5.63867</v>
+        <v>3.7144</v>
       </c>
       <c r="C79" t="n">
-        <v>5638.67</v>
+        <v>3714.4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41784</v>
+        <v>2.42349</v>
       </c>
       <c r="B80" t="n">
-        <v>5.59</v>
+        <v>3.70579</v>
       </c>
       <c r="C80" t="n">
-        <v>5590</v>
+        <v>3705.79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44897</v>
+        <v>2.45336</v>
       </c>
       <c r="B81" t="n">
-        <v>5.51191</v>
+        <v>3.7161</v>
       </c>
       <c r="C81" t="n">
-        <v>5511.91</v>
+        <v>3716.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47993</v>
+        <v>2.48323</v>
       </c>
       <c r="B82" t="n">
-        <v>5.46564</v>
+        <v>3.6707</v>
       </c>
       <c r="C82" t="n">
-        <v>5465.64</v>
+        <v>3670.7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51078</v>
+        <v>2.51309</v>
       </c>
       <c r="B83" t="n">
-        <v>5.45661</v>
+        <v>3.65164</v>
       </c>
       <c r="C83" t="n">
-        <v>5456.61</v>
+        <v>3651.64</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53996</v>
+        <v>2.54296</v>
       </c>
       <c r="B84" t="n">
-        <v>5.48008</v>
+        <v>3.68527</v>
       </c>
       <c r="C84" t="n">
-        <v>5480.08</v>
+        <v>3685.27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57156</v>
+        <v>2.57161</v>
       </c>
       <c r="B85" t="n">
-        <v>5.45284</v>
+        <v>3.6616</v>
       </c>
       <c r="C85" t="n">
-        <v>5452.84</v>
+        <v>3661.6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60477</v>
+        <v>2.6022</v>
       </c>
       <c r="B86" t="n">
-        <v>5.41904</v>
+        <v>3.65427</v>
       </c>
       <c r="C86" t="n">
-        <v>5419.04</v>
+        <v>3654.27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63805</v>
+        <v>2.63548</v>
       </c>
       <c r="B87" t="n">
-        <v>5.4157</v>
+        <v>3.6463</v>
       </c>
       <c r="C87" t="n">
-        <v>5415.7</v>
+        <v>3646.3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67134</v>
+        <v>2.66876</v>
       </c>
       <c r="B88" t="n">
-        <v>5.40782</v>
+        <v>3.59701</v>
       </c>
       <c r="C88" t="n">
-        <v>5407.82</v>
+        <v>3597.01</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70299</v>
+        <v>2.70204</v>
       </c>
       <c r="B89" t="n">
-        <v>5.37846</v>
+        <v>3.60684</v>
       </c>
       <c r="C89" t="n">
-        <v>5378.46</v>
+        <v>3606.84</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73373</v>
+        <v>2.73526</v>
       </c>
       <c r="B90" t="n">
-        <v>5.34887</v>
+        <v>3.61013</v>
       </c>
       <c r="C90" t="n">
-        <v>5348.87</v>
+        <v>3610.13</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76445</v>
+        <v>2.7666</v>
       </c>
       <c r="B91" t="n">
-        <v>5.3222</v>
+        <v>3.59569</v>
       </c>
       <c r="C91" t="n">
-        <v>5322.2</v>
+        <v>3595.69</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79517</v>
+        <v>2.79734</v>
       </c>
       <c r="B92" t="n">
-        <v>5.2921</v>
+        <v>3.57258</v>
       </c>
       <c r="C92" t="n">
-        <v>5292.1</v>
+        <v>3572.58</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82589</v>
+        <v>2.82806</v>
       </c>
       <c r="B93" t="n">
-        <v>5.27068</v>
+        <v>3.56354</v>
       </c>
       <c r="C93" t="n">
-        <v>5270.68</v>
+        <v>3563.54</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85661</v>
+        <v>2.85878</v>
       </c>
       <c r="B94" t="n">
-        <v>5.243180000000001</v>
+        <v>3.54927</v>
       </c>
       <c r="C94" t="n">
-        <v>5243.18</v>
+        <v>3549.27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88733</v>
+        <v>2.8895</v>
       </c>
       <c r="B95" t="n">
-        <v>5.189970000000001</v>
+        <v>3.52383</v>
       </c>
       <c r="C95" t="n">
-        <v>5189.97</v>
+        <v>3523.83</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.9165</v>
+        <v>2.92022</v>
       </c>
       <c r="B96" t="n">
-        <v>5.16655</v>
+        <v>3.49164</v>
       </c>
       <c r="C96" t="n">
-        <v>5166.55</v>
+        <v>3491.64</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.9447</v>
+        <v>2.95073</v>
       </c>
       <c r="B97" t="n">
-        <v>5.16657</v>
+        <v>3.44243</v>
       </c>
       <c r="C97" t="n">
-        <v>5166.57</v>
+        <v>3442.43</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97286</v>
+        <v>2.97969</v>
       </c>
       <c r="B98" t="n">
-        <v>5.10681</v>
+        <v>3.47526</v>
       </c>
       <c r="C98" t="n">
-        <v>5106.81</v>
+        <v>3475.26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00102</v>
+        <v>3.00788</v>
       </c>
       <c r="B99" t="n">
-        <v>5.09575</v>
+        <v>3.45797</v>
       </c>
       <c r="C99" t="n">
-        <v>5095.75</v>
+        <v>3457.97</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.02919</v>
+        <v>3.03604</v>
       </c>
       <c r="B100" t="n">
-        <v>5.07295</v>
+        <v>3.40979</v>
       </c>
       <c r="C100" t="n">
-        <v>5072.95</v>
+        <v>3409.79</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.05994</v>
+        <v>3.0642</v>
       </c>
       <c r="B101" t="n">
-        <v>5.03259</v>
+        <v>3.41599</v>
       </c>
       <c r="C101" t="n">
-        <v>5032.59</v>
+        <v>3415.99</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09492</v>
+        <v>3.0925</v>
       </c>
       <c r="B102" t="n">
-        <v>5.0162</v>
+        <v>3.37539</v>
       </c>
       <c r="C102" t="n">
-        <v>5016.2</v>
+        <v>3375.39</v>
       </c>
     </row>
   </sheetData>
